--- a/biology/Botanique/Parc_national_urbain_royal/Parc_national_urbain_royal.xlsx
+++ b/biology/Botanique/Parc_national_urbain_royal/Parc_national_urbain_royal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc national urbain royal (Kungliga nationalstadsparken) est une aire protégée situé au cœur de la ville de Stockholm, en Suède. Il s'étale sur 27 km2 des communes de Stockholm, Solna et Lidingö et forme une coulée verte dans ce territoire hautement urbanisé. Il inclut entre autres Skeppsholmen, Kastellholmen, Beckholmen, Djurgården, Fjäderholmarna, Gärdet, Norra Djurgården, le parc Haga et le parc du château d'Ulriksdal. Le parc est créé en 1995 sous le nom Ekoparken mais il est appelé officiellement parc national urbain royal depuis 2009. Il est ainsi considéré comme le premier parc national urbain, plusieurs ayant depuis été créés en Finlande.
